--- a/Code/Results/Cases/Case_5_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_128/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006038448968502</v>
+        <v>1.04066742710952</v>
       </c>
       <c r="D2">
-        <v>1.021940281065047</v>
+        <v>1.042112379478265</v>
       </c>
       <c r="E2">
-        <v>1.010907741865842</v>
+        <v>1.038958755264215</v>
       </c>
       <c r="F2">
-        <v>0.9832120424239857</v>
+        <v>1.039424397813518</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046363042358167</v>
+        <v>1.041318843429398</v>
       </c>
       <c r="J2">
-        <v>1.02804003899047</v>
+        <v>1.045752794676574</v>
       </c>
       <c r="K2">
-        <v>1.033102186328219</v>
+        <v>1.044889987376644</v>
       </c>
       <c r="L2">
-        <v>1.022217177675679</v>
+        <v>1.041745306298794</v>
       </c>
       <c r="M2">
-        <v>0.9949103230861076</v>
+        <v>1.042209624658859</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012943612188804</v>
+        <v>1.041984716831792</v>
       </c>
       <c r="D3">
-        <v>1.027186160877205</v>
+        <v>1.043114880628448</v>
       </c>
       <c r="E3">
-        <v>1.016675247909546</v>
+        <v>1.040095706977138</v>
       </c>
       <c r="F3">
-        <v>0.9928747622511617</v>
+        <v>1.041371098644693</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049239234730425</v>
+        <v>1.04177066314492</v>
       </c>
       <c r="J3">
-        <v>1.033087534529942</v>
+        <v>1.046713961725309</v>
       </c>
       <c r="K3">
-        <v>1.037482616429569</v>
+        <v>1.045702751054996</v>
       </c>
       <c r="L3">
-        <v>1.027099120696936</v>
+        <v>1.042691515913576</v>
       </c>
       <c r="M3">
-        <v>1.003599631024103</v>
+        <v>1.043963548044885</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017272212733877</v>
+        <v>1.042835418703602</v>
       </c>
       <c r="D4">
-        <v>1.030476472197938</v>
+        <v>1.043762072289576</v>
       </c>
       <c r="E4">
-        <v>1.020295272080602</v>
+        <v>1.040830049940091</v>
       </c>
       <c r="F4">
-        <v>0.9989217358116316</v>
+        <v>1.042628803438121</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051028456012263</v>
+        <v>1.042060812318833</v>
       </c>
       <c r="J4">
-        <v>1.036244180400398</v>
+        <v>1.047333774353136</v>
       </c>
       <c r="K4">
-        <v>1.040220477649063</v>
+        <v>1.046226564695276</v>
       </c>
       <c r="L4">
-        <v>1.030154769601354</v>
+        <v>1.04330186099141</v>
       </c>
       <c r="M4">
-        <v>1.009033191976512</v>
+        <v>1.045096119351155</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019060466633688</v>
+        <v>1.043192660025108</v>
       </c>
       <c r="D5">
-        <v>1.03183614379207</v>
+        <v>1.044033798447362</v>
       </c>
       <c r="E5">
-        <v>1.021791818828056</v>
+        <v>1.041138451802653</v>
       </c>
       <c r="F5">
-        <v>1.001417929211931</v>
+        <v>1.043157092659726</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051764290518208</v>
+        <v>1.042182265077159</v>
       </c>
       <c r="J5">
-        <v>1.037546462519227</v>
+        <v>1.047593839600363</v>
       </c>
       <c r="K5">
-        <v>1.041349577779789</v>
+        <v>1.04644627771751</v>
       </c>
       <c r="L5">
-        <v>1.031415971773824</v>
+        <v>1.043557996199931</v>
       </c>
       <c r="M5">
-        <v>1.011275099734871</v>
+        <v>1.045571706786447</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019358928046689</v>
+        <v>1.043252619519142</v>
       </c>
       <c r="D6">
-        <v>1.032063093261592</v>
+        <v>1.044079401878085</v>
       </c>
       <c r="E6">
-        <v>1.022041652126309</v>
+        <v>1.041190215453554</v>
       </c>
       <c r="F6">
-        <v>1.001834444384893</v>
+        <v>1.043245768790876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051886904681974</v>
+        <v>1.042202626766662</v>
       </c>
       <c r="J6">
-        <v>1.037763707805987</v>
+        <v>1.047637476295207</v>
       </c>
       <c r="K6">
-        <v>1.04153790813123</v>
+        <v>1.046483139406331</v>
       </c>
       <c r="L6">
-        <v>1.03162639805108</v>
+        <v>1.043600975952236</v>
       </c>
       <c r="M6">
-        <v>1.011649120561511</v>
+        <v>1.045651528403995</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017296228808106</v>
+        <v>1.042840193718517</v>
       </c>
       <c r="D7">
-        <v>1.030494731131809</v>
+        <v>1.043765704490335</v>
       </c>
       <c r="E7">
-        <v>1.020315366599611</v>
+        <v>1.040834172055964</v>
       </c>
       <c r="F7">
-        <v>0.9989552666023628</v>
+        <v>1.042635864214067</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051038351460563</v>
+        <v>1.042062437239814</v>
       </c>
       <c r="J7">
-        <v>1.036261677106426</v>
+        <v>1.047337251331654</v>
       </c>
       <c r="K7">
-        <v>1.040235649244314</v>
+        <v>1.04622950246395</v>
       </c>
       <c r="L7">
-        <v>1.030171712085041</v>
+        <v>1.043305285260078</v>
       </c>
       <c r="M7">
-        <v>1.00906331130104</v>
+        <v>1.045102476300954</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008402170466036</v>
+        <v>1.041112961717129</v>
       </c>
       <c r="D8">
-        <v>1.023735563747918</v>
+        <v>1.042451491333662</v>
       </c>
       <c r="E8">
-        <v>1.012881013476315</v>
+        <v>1.039343274111386</v>
       </c>
       <c r="F8">
-        <v>0.9865221940090652</v>
+        <v>1.040082705246498</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047350483324301</v>
+        <v>1.041471996936039</v>
       </c>
       <c r="J8">
-        <v>1.029769419685003</v>
+        <v>1.046078069050886</v>
       </c>
       <c r="K8">
-        <v>1.03460334068062</v>
+        <v>1.045165101793125</v>
       </c>
       <c r="L8">
-        <v>1.023889284951473</v>
+        <v>1.042065481842463</v>
       </c>
       <c r="M8">
-        <v>0.997887879697233</v>
+        <v>1.042802862676393</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9915653146004395</v>
+        <v>1.038056246265958</v>
       </c>
       <c r="D9">
-        <v>1.010959623213602</v>
+        <v>1.040124043781676</v>
       </c>
       <c r="E9">
-        <v>0.9988487058193665</v>
+        <v>1.036705623539755</v>
       </c>
       <c r="F9">
-        <v>0.9628754652288378</v>
+        <v>1.035568184804161</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040258715976783</v>
+        <v>1.04041452839692</v>
       </c>
       <c r="J9">
-        <v>1.017419480071391</v>
+        <v>1.043842708239259</v>
       </c>
       <c r="K9">
-        <v>1.023877355944369</v>
+        <v>1.043273226828707</v>
       </c>
       <c r="L9">
-        <v>1.011960489626237</v>
+        <v>1.039865901199612</v>
       </c>
       <c r="M9">
-        <v>0.9766010189141477</v>
+        <v>1.038732171862284</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9794044994137062</v>
+        <v>1.036009196029882</v>
       </c>
       <c r="D10">
-        <v>1.001752001288121</v>
+        <v>1.038564310620094</v>
       </c>
       <c r="E10">
-        <v>0.9887479559881595</v>
+        <v>1.034939808845737</v>
       </c>
       <c r="F10">
-        <v>0.945675462290848</v>
+        <v>1.032547133898604</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03506346426329</v>
+        <v>1.039697919846802</v>
       </c>
       <c r="J10">
-        <v>1.008459773694873</v>
+        <v>1.042341032273726</v>
       </c>
       <c r="K10">
-        <v>1.016089694698369</v>
+        <v>1.042000772164471</v>
       </c>
       <c r="L10">
-        <v>1.003323385565869</v>
+        <v>1.038389199639642</v>
       </c>
       <c r="M10">
-        <v>0.9611000905505004</v>
+        <v>1.036005114688604</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9738755136272016</v>
+        <v>1.035120513878521</v>
       </c>
       <c r="D11">
-        <v>0.997572208449546</v>
+        <v>1.037886944626095</v>
       </c>
       <c r="E11">
-        <v>0.9841653722201412</v>
+        <v>1.034173368244941</v>
       </c>
       <c r="F11">
-        <v>0.9378140480419884</v>
+        <v>1.031236080923097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032684602423021</v>
+        <v>1.039384822669035</v>
       </c>
       <c r="J11">
-        <v>1.004376986436577</v>
+        <v>1.041688003951534</v>
       </c>
       <c r="K11">
-        <v>1.012540055056699</v>
+        <v>1.041447067030393</v>
       </c>
       <c r="L11">
-        <v>0.9993922147769415</v>
+        <v>1.037747256663494</v>
       </c>
       <c r="M11">
-        <v>0.9540123800327993</v>
+        <v>1.034820935432875</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9717780955259864</v>
+        <v>1.034790064527949</v>
       </c>
       <c r="D12">
-        <v>0.9959877483246149</v>
+        <v>1.03763503606742</v>
       </c>
       <c r="E12">
-        <v>0.9824285946152268</v>
+        <v>1.033888396607717</v>
       </c>
       <c r="F12">
-        <v>0.9348242989955503</v>
+        <v>1.030748641132396</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031779706257082</v>
+        <v>1.03926810015666</v>
       </c>
       <c r="J12">
-        <v>1.002826815834115</v>
+        <v>1.041445014134922</v>
       </c>
       <c r="K12">
-        <v>1.011192222564288</v>
+        <v>1.041240981744086</v>
       </c>
       <c r="L12">
-        <v>0.9979003594109671</v>
+        <v>1.037508425649845</v>
       </c>
       <c r="M12">
-        <v>0.9513165765602225</v>
+        <v>1.034380559685232</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9722300503282938</v>
+        <v>1.034860963153894</v>
       </c>
       <c r="D13">
-        <v>0.9963291158150483</v>
+        <v>1.037689085184316</v>
       </c>
       <c r="E13">
-        <v>0.982802762179542</v>
+        <v>1.033949536831209</v>
       </c>
       <c r="F13">
-        <v>0.9354688977458662</v>
+        <v>1.030853219562464</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031974805531017</v>
+        <v>1.039293156787416</v>
       </c>
       <c r="J13">
-        <v>1.003160910394454</v>
+        <v>1.041497155657989</v>
       </c>
       <c r="K13">
-        <v>1.011482712150108</v>
+        <v>1.041285206582549</v>
       </c>
       <c r="L13">
-        <v>0.9982218510381249</v>
+        <v>1.037559673223235</v>
       </c>
       <c r="M13">
-        <v>0.9518978108862864</v>
+        <v>1.034475045518973</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9737030582877663</v>
+        <v>1.035093206086204</v>
       </c>
       <c r="D14">
-        <v>0.9974419057386084</v>
+        <v>1.037866128033265</v>
       </c>
       <c r="E14">
-        <v>0.9840225358738194</v>
+        <v>1.034149818179458</v>
       </c>
       <c r="F14">
-        <v>0.9375683837329482</v>
+        <v>1.031195798411578</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032610249312336</v>
+        <v>1.039375183025125</v>
       </c>
       <c r="J14">
-        <v>1.00424955487969</v>
+        <v>1.041667927065723</v>
       </c>
       <c r="K14">
-        <v>1.012429258180478</v>
+        <v>1.041430040443885</v>
       </c>
       <c r="L14">
-        <v>0.9992695614961622</v>
+        <v>1.037727522702259</v>
       </c>
       <c r="M14">
-        <v>0.9537908741122463</v>
+        <v>1.034784544514906</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9746047005138025</v>
+        <v>1.035236251565664</v>
       </c>
       <c r="D15">
-        <v>0.998123210250361</v>
+        <v>1.037975169438346</v>
       </c>
       <c r="E15">
-        <v>0.9847693890205869</v>
+        <v>1.034273180639171</v>
       </c>
       <c r="F15">
-        <v>0.9388524678941765</v>
+        <v>1.031406811537665</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032998886848145</v>
+        <v>1.039425665771798</v>
       </c>
       <c r="J15">
-        <v>1.004915745407166</v>
+        <v>1.041773088320245</v>
       </c>
       <c r="K15">
-        <v>1.013008482098362</v>
+        <v>1.041519222274706</v>
       </c>
       <c r="L15">
-        <v>0.9999108027552371</v>
+        <v>1.037830889134816</v>
       </c>
       <c r="M15">
-        <v>0.9549486714021086</v>
+        <v>1.034975167820905</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.979765552760406</v>
+        <v>1.03606812585903</v>
       </c>
       <c r="D16">
-        <v>1.002025097559857</v>
+        <v>1.038609222748328</v>
       </c>
       <c r="E16">
-        <v>0.9890474220028369</v>
+        <v>1.034990635862002</v>
       </c>
       <c r="F16">
-        <v>0.9461878689336719</v>
+        <v>1.03263408116009</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03521846539673</v>
+        <v>1.039718639767267</v>
       </c>
       <c r="J16">
-        <v>1.00872619879734</v>
+        <v>1.042384312224515</v>
       </c>
       <c r="K16">
-        <v>1.016321313711528</v>
+        <v>1.042037461909385</v>
       </c>
       <c r="L16">
-        <v>1.003580016500455</v>
+        <v>1.038431749646674</v>
       </c>
       <c r="M16">
-        <v>0.961562018569299</v>
+        <v>1.03608363289873</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9829295920105515</v>
+        <v>1.036589318114723</v>
       </c>
       <c r="D17">
-        <v>1.004419087909765</v>
+        <v>1.039006410655934</v>
       </c>
       <c r="E17">
-        <v>0.9916728670779914</v>
+        <v>1.035440181838917</v>
       </c>
       <c r="F17">
-        <v>0.9506734869555709</v>
+        <v>1.033403121124179</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036574909438465</v>
+        <v>1.039901662282845</v>
       </c>
       <c r="J17">
-        <v>1.011059943415946</v>
+        <v>1.042766964608901</v>
       </c>
       <c r="K17">
-        <v>1.018350075635473</v>
+        <v>1.04236180694764</v>
       </c>
       <c r="L17">
-        <v>1.005828493608376</v>
+        <v>1.038807974295169</v>
       </c>
       <c r="M17">
-        <v>0.9656054365587567</v>
+        <v>1.036778036665954</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9847500318520858</v>
+        <v>1.03689309978454</v>
       </c>
       <c r="D18">
-        <v>1.005797075822846</v>
+        <v>1.039237891892187</v>
       </c>
       <c r="E18">
-        <v>0.9931843307136196</v>
+        <v>1.035702218151954</v>
       </c>
       <c r="F18">
-        <v>0.9532505247634573</v>
+        <v>1.033851408800259</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03735376556471</v>
+        <v>1.040008146205442</v>
       </c>
       <c r="J18">
-        <v>1.012401807491449</v>
+        <v>1.042989890253042</v>
       </c>
       <c r="K18">
-        <v>1.019516488870139</v>
+        <v>1.042550729469562</v>
       </c>
       <c r="L18">
-        <v>1.007121757809714</v>
+        <v>1.039027176891571</v>
       </c>
       <c r="M18">
-        <v>0.9679281475822054</v>
+        <v>1.037182748945907</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9853666151342186</v>
+        <v>1.036996644255386</v>
       </c>
       <c r="D19">
-        <v>1.006263897433486</v>
+        <v>1.039316788653007</v>
       </c>
       <c r="E19">
-        <v>0.9936964130585411</v>
+        <v>1.035791536059201</v>
       </c>
       <c r="F19">
-        <v>0.9541227624551993</v>
+        <v>1.03400421630555</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037617295140006</v>
+        <v>1.040044408776438</v>
       </c>
       <c r="J19">
-        <v>1.012856150150028</v>
+        <v>1.043065856700581</v>
       </c>
       <c r="K19">
-        <v>1.019911408702784</v>
+        <v>1.042615102810815</v>
       </c>
       <c r="L19">
-        <v>1.007559716008568</v>
+        <v>1.039101878296381</v>
       </c>
       <c r="M19">
-        <v>0.9687142538307497</v>
+        <v>1.037320691299052</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9825927438192185</v>
+        <v>1.036533422034409</v>
       </c>
       <c r="D20">
-        <v>1.004164156938149</v>
+        <v>1.038963816027171</v>
       </c>
       <c r="E20">
-        <v>0.9913932632018767</v>
+        <v>1.035391968087812</v>
       </c>
       <c r="F20">
-        <v>0.950196342811318</v>
+        <v>1.033320639542132</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036430664203048</v>
+        <v>1.039882053653762</v>
       </c>
       <c r="J20">
-        <v>1.010811579221846</v>
+        <v>1.042725937503237</v>
       </c>
       <c r="K20">
-        <v>1.018134177744203</v>
+        <v>1.042327034980832</v>
       </c>
       <c r="L20">
-        <v>1.005589159009735</v>
+        <v>1.038767634117387</v>
       </c>
       <c r="M20">
-        <v>0.9651753581692071</v>
+        <v>1.036703567107399</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9732705372312285</v>
+        <v>1.035024826149078</v>
       </c>
       <c r="D21">
-        <v>0.9971151231699106</v>
+        <v>1.037814001781791</v>
       </c>
       <c r="E21">
-        <v>0.9836643264179794</v>
+        <v>1.034090848135659</v>
       </c>
       <c r="F21">
-        <v>0.9369521274548965</v>
+        <v>1.031094930221275</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032423730771013</v>
+        <v>1.039351040082807</v>
       </c>
       <c r="J21">
-        <v>1.003929932345326</v>
+        <v>1.041617650954883</v>
       </c>
       <c r="K21">
-        <v>1.012151357324405</v>
+        <v>1.041387401968057</v>
       </c>
       <c r="L21">
-        <v>0.9989619360214785</v>
+        <v>1.037678105885247</v>
       </c>
       <c r="M21">
-        <v>0.9532352155633106</v>
+        <v>1.034693419228413</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.967153870626297</v>
+        <v>1.034074264189099</v>
       </c>
       <c r="D22">
-        <v>0.9924967610914622</v>
+        <v>1.037089302441054</v>
       </c>
       <c r="E22">
-        <v>0.9786026657515873</v>
+        <v>1.033271150675077</v>
       </c>
       <c r="F22">
-        <v>0.9282171538615395</v>
+        <v>1.029692889174025</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029780145340743</v>
+        <v>1.039014714278975</v>
       </c>
       <c r="J22">
-        <v>0.9994066084879204</v>
+        <v>1.040918359145933</v>
       </c>
       <c r="K22">
-        <v>1.008218338566891</v>
+        <v>1.040794216293977</v>
       </c>
       <c r="L22">
-        <v>0.9946102687687077</v>
+        <v>1.036990846843737</v>
       </c>
       <c r="M22">
-        <v>0.945358647720196</v>
+        <v>1.033426549442882</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9704222043870072</v>
+        <v>1.03457837197207</v>
       </c>
       <c r="D23">
-        <v>0.9949638067648667</v>
+        <v>1.037473648474434</v>
       </c>
       <c r="E23">
-        <v>0.9813063205639367</v>
+        <v>1.033705844613078</v>
       </c>
       <c r="F23">
-        <v>0.9328892463160695</v>
+        <v>1.03043639481504</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031194037848004</v>
+        <v>1.039193240965555</v>
       </c>
       <c r="J23">
-        <v>1.001824312938747</v>
+        <v>1.041289303077601</v>
       </c>
       <c r="K23">
-        <v>1.01032055430804</v>
+        <v>1.041108904628359</v>
       </c>
       <c r="L23">
-        <v>0.9969357881588758</v>
+        <v>1.037355389200486</v>
       </c>
       <c r="M23">
-        <v>0.9495717083968835</v>
+        <v>1.034098431858137</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9827450282489948</v>
+        <v>1.036558679749094</v>
       </c>
       <c r="D24">
-        <v>1.0042794058738</v>
+        <v>1.038983063298488</v>
       </c>
       <c r="E24">
-        <v>0.9915196654613282</v>
+        <v>1.035413754350674</v>
       </c>
       <c r="F24">
-        <v>0.9504120647541975</v>
+        <v>1.033357910282995</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036495880396929</v>
+        <v>1.039890914783201</v>
       </c>
       <c r="J24">
-        <v>1.010923863938767</v>
+        <v>1.042744476716957</v>
       </c>
       <c r="K24">
-        <v>1.018231784827982</v>
+        <v>1.042342747746373</v>
       </c>
       <c r="L24">
-        <v>1.005697360148172</v>
+        <v>1.038785862857247</v>
       </c>
       <c r="M24">
-        <v>0.9653698020574301</v>
+        <v>1.036737217687711</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9960706307067404</v>
+        <v>1.038848077759144</v>
       </c>
       <c r="D25">
-        <v>1.014375399232222</v>
+        <v>1.040727152142897</v>
       </c>
       <c r="E25">
-        <v>1.002598202107507</v>
+        <v>1.03738879653661</v>
       </c>
       <c r="F25">
-        <v>0.9692198808227175</v>
+        <v>1.036737232004906</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042168934604861</v>
+        <v>1.040689946237862</v>
       </c>
       <c r="J25">
-        <v>1.020730961295028</v>
+        <v>1.044422593942828</v>
       </c>
       <c r="K25">
-        <v>1.026754580298064</v>
+        <v>1.043764276874555</v>
       </c>
       <c r="L25">
-        <v>1.015156317787654</v>
+        <v>1.040436341041456</v>
       </c>
       <c r="M25">
-        <v>0.9823155824947938</v>
+        <v>1.039786818744906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_128/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04066742710952</v>
+        <v>1.006038448968503</v>
       </c>
       <c r="D2">
-        <v>1.042112379478265</v>
+        <v>1.021940281065048</v>
       </c>
       <c r="E2">
-        <v>1.038958755264215</v>
+        <v>1.010907741865843</v>
       </c>
       <c r="F2">
-        <v>1.039424397813518</v>
+        <v>0.9832120424239869</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041318843429398</v>
+        <v>1.046363042358168</v>
       </c>
       <c r="J2">
-        <v>1.045752794676574</v>
+        <v>1.028040038990471</v>
       </c>
       <c r="K2">
-        <v>1.044889987376644</v>
+        <v>1.033102186328219</v>
       </c>
       <c r="L2">
-        <v>1.041745306298794</v>
+        <v>1.02221717767568</v>
       </c>
       <c r="M2">
-        <v>1.042209624658859</v>
+        <v>0.9949103230861085</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041984716831792</v>
+        <v>1.012943612188802</v>
       </c>
       <c r="D3">
-        <v>1.043114880628448</v>
+        <v>1.027186160877203</v>
       </c>
       <c r="E3">
-        <v>1.040095706977138</v>
+        <v>1.016675247909543</v>
       </c>
       <c r="F3">
-        <v>1.041371098644693</v>
+        <v>0.9928747622511593</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04177066314492</v>
+        <v>1.049239234730423</v>
       </c>
       <c r="J3">
-        <v>1.046713961725309</v>
+        <v>1.03308753452994</v>
       </c>
       <c r="K3">
-        <v>1.045702751054996</v>
+        <v>1.037482616429567</v>
       </c>
       <c r="L3">
-        <v>1.042691515913576</v>
+        <v>1.027099120696934</v>
       </c>
       <c r="M3">
-        <v>1.043963548044885</v>
+        <v>1.003599631024101</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042835418703602</v>
+        <v>1.017272212733878</v>
       </c>
       <c r="D4">
-        <v>1.043762072289576</v>
+        <v>1.030476472197939</v>
       </c>
       <c r="E4">
-        <v>1.040830049940091</v>
+        <v>1.020295272080602</v>
       </c>
       <c r="F4">
-        <v>1.042628803438121</v>
+        <v>0.9989217358116326</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042060812318833</v>
+        <v>1.051028456012264</v>
       </c>
       <c r="J4">
-        <v>1.047333774353136</v>
+        <v>1.036244180400399</v>
       </c>
       <c r="K4">
-        <v>1.046226564695276</v>
+        <v>1.040220477649065</v>
       </c>
       <c r="L4">
-        <v>1.04330186099141</v>
+        <v>1.030154769601354</v>
       </c>
       <c r="M4">
-        <v>1.045096119351155</v>
+        <v>1.009033191976513</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043192660025108</v>
+        <v>1.019060466633686</v>
       </c>
       <c r="D5">
-        <v>1.044033798447362</v>
+        <v>1.031836143792068</v>
       </c>
       <c r="E5">
-        <v>1.041138451802653</v>
+        <v>1.021791818828054</v>
       </c>
       <c r="F5">
-        <v>1.043157092659726</v>
+        <v>1.001417929211929</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042182265077159</v>
+        <v>1.051764290518207</v>
       </c>
       <c r="J5">
-        <v>1.047593839600363</v>
+        <v>1.037546462519225</v>
       </c>
       <c r="K5">
-        <v>1.04644627771751</v>
+        <v>1.041349577779788</v>
       </c>
       <c r="L5">
-        <v>1.043557996199931</v>
+        <v>1.031415971773822</v>
       </c>
       <c r="M5">
-        <v>1.045571706786447</v>
+        <v>1.011275099734869</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043252619519142</v>
+        <v>1.019358928046689</v>
       </c>
       <c r="D6">
-        <v>1.044079401878085</v>
+        <v>1.032063093261592</v>
       </c>
       <c r="E6">
-        <v>1.041190215453554</v>
+        <v>1.022041652126309</v>
       </c>
       <c r="F6">
-        <v>1.043245768790876</v>
+        <v>1.001834444384894</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042202626766662</v>
+        <v>1.051886904681975</v>
       </c>
       <c r="J6">
-        <v>1.047637476295207</v>
+        <v>1.037763707805988</v>
       </c>
       <c r="K6">
-        <v>1.046483139406331</v>
+        <v>1.04153790813123</v>
       </c>
       <c r="L6">
-        <v>1.043600975952236</v>
+        <v>1.03162639805108</v>
       </c>
       <c r="M6">
-        <v>1.045651528403995</v>
+        <v>1.011649120561511</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.042840193718517</v>
+        <v>1.017296228808107</v>
       </c>
       <c r="D7">
-        <v>1.043765704490335</v>
+        <v>1.03049473113181</v>
       </c>
       <c r="E7">
-        <v>1.040834172055964</v>
+        <v>1.020315366599611</v>
       </c>
       <c r="F7">
-        <v>1.042635864214067</v>
+        <v>0.9989552666023638</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042062437239814</v>
+        <v>1.051038351460564</v>
       </c>
       <c r="J7">
-        <v>1.047337251331654</v>
+        <v>1.036261677106427</v>
       </c>
       <c r="K7">
-        <v>1.04622950246395</v>
+        <v>1.040235649244315</v>
       </c>
       <c r="L7">
-        <v>1.043305285260078</v>
+        <v>1.030171712085041</v>
       </c>
       <c r="M7">
-        <v>1.045102476300954</v>
+        <v>1.009063311301041</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041112961717129</v>
+        <v>1.008402170466036</v>
       </c>
       <c r="D8">
-        <v>1.042451491333662</v>
+        <v>1.023735563747919</v>
       </c>
       <c r="E8">
-        <v>1.039343274111386</v>
+        <v>1.012881013476315</v>
       </c>
       <c r="F8">
-        <v>1.040082705246498</v>
+        <v>0.9865221940090665</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041471996936039</v>
+        <v>1.047350483324301</v>
       </c>
       <c r="J8">
-        <v>1.046078069050886</v>
+        <v>1.029769419685004</v>
       </c>
       <c r="K8">
-        <v>1.045165101793125</v>
+        <v>1.034603340680621</v>
       </c>
       <c r="L8">
-        <v>1.042065481842463</v>
+        <v>1.023889284951473</v>
       </c>
       <c r="M8">
-        <v>1.042802862676393</v>
+        <v>0.9978878796972342</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038056246265958</v>
+        <v>0.9915653146004384</v>
       </c>
       <c r="D9">
-        <v>1.040124043781676</v>
+        <v>1.010959623213601</v>
       </c>
       <c r="E9">
-        <v>1.036705623539755</v>
+        <v>0.998848705819365</v>
       </c>
       <c r="F9">
-        <v>1.035568184804161</v>
+        <v>0.9628754652288365</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04041452839692</v>
+        <v>1.040258715976783</v>
       </c>
       <c r="J9">
-        <v>1.043842708239259</v>
+        <v>1.01741948007139</v>
       </c>
       <c r="K9">
-        <v>1.043273226828707</v>
+        <v>1.023877355944368</v>
       </c>
       <c r="L9">
-        <v>1.039865901199612</v>
+        <v>1.011960489626236</v>
       </c>
       <c r="M9">
-        <v>1.038732171862284</v>
+        <v>0.9766010189141466</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036009196029882</v>
+        <v>0.9794044994137052</v>
       </c>
       <c r="D10">
-        <v>1.038564310620094</v>
+        <v>1.00175200128812</v>
       </c>
       <c r="E10">
-        <v>1.034939808845737</v>
+        <v>0.9887479559881585</v>
       </c>
       <c r="F10">
-        <v>1.032547133898604</v>
+        <v>0.9456754622908465</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039697919846802</v>
+        <v>1.035063464263289</v>
       </c>
       <c r="J10">
-        <v>1.042341032273726</v>
+        <v>1.008459773694872</v>
       </c>
       <c r="K10">
-        <v>1.042000772164471</v>
+        <v>1.016089694698368</v>
       </c>
       <c r="L10">
-        <v>1.038389199639642</v>
+        <v>1.003323385565869</v>
       </c>
       <c r="M10">
-        <v>1.036005114688604</v>
+        <v>0.9611000905504989</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035120513878521</v>
+        <v>0.9738755136272</v>
       </c>
       <c r="D11">
-        <v>1.037886944626095</v>
+        <v>0.9975722084495445</v>
       </c>
       <c r="E11">
-        <v>1.034173368244941</v>
+        <v>0.9841653722201399</v>
       </c>
       <c r="F11">
-        <v>1.031236080923097</v>
+        <v>0.9378140480419863</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039384822669035</v>
+        <v>1.03268460242302</v>
       </c>
       <c r="J11">
-        <v>1.041688003951534</v>
+        <v>1.004376986436576</v>
       </c>
       <c r="K11">
-        <v>1.041447067030393</v>
+        <v>1.012540055056697</v>
       </c>
       <c r="L11">
-        <v>1.037747256663494</v>
+        <v>0.9993922147769402</v>
       </c>
       <c r="M11">
-        <v>1.034820935432875</v>
+        <v>0.9540123800327973</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034790064527949</v>
+        <v>0.9717780955259865</v>
       </c>
       <c r="D12">
-        <v>1.03763503606742</v>
+        <v>0.995987748324615</v>
       </c>
       <c r="E12">
-        <v>1.033888396607717</v>
+        <v>0.9824285946152268</v>
       </c>
       <c r="F12">
-        <v>1.030748641132396</v>
+        <v>0.9348242989955515</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03926810015666</v>
+        <v>1.031779706257083</v>
       </c>
       <c r="J12">
-        <v>1.041445014134922</v>
+        <v>1.002826815834115</v>
       </c>
       <c r="K12">
-        <v>1.041240981744086</v>
+        <v>1.011192222564288</v>
       </c>
       <c r="L12">
-        <v>1.037508425649845</v>
+        <v>0.9979003594109671</v>
       </c>
       <c r="M12">
-        <v>1.034380559685232</v>
+        <v>0.9513165765602235</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034860963153894</v>
+        <v>0.9722300503282942</v>
       </c>
       <c r="D13">
-        <v>1.037689085184316</v>
+        <v>0.9963291158150487</v>
       </c>
       <c r="E13">
-        <v>1.033949536831209</v>
+        <v>0.9828027621795419</v>
       </c>
       <c r="F13">
-        <v>1.030853219562464</v>
+        <v>0.9354688977458666</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039293156787416</v>
+        <v>1.031974805531017</v>
       </c>
       <c r="J13">
-        <v>1.041497155657989</v>
+        <v>1.003160910394454</v>
       </c>
       <c r="K13">
-        <v>1.041285206582549</v>
+        <v>1.011482712150108</v>
       </c>
       <c r="L13">
-        <v>1.037559673223235</v>
+        <v>0.998221851038125</v>
       </c>
       <c r="M13">
-        <v>1.034475045518973</v>
+        <v>0.9518978108862868</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035093206086204</v>
+        <v>0.9737030582877683</v>
       </c>
       <c r="D14">
-        <v>1.037866128033265</v>
+        <v>0.9974419057386106</v>
       </c>
       <c r="E14">
-        <v>1.034149818179458</v>
+        <v>0.9840225358738207</v>
       </c>
       <c r="F14">
-        <v>1.031195798411578</v>
+        <v>0.9375683837329497</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039375183025125</v>
+        <v>1.032610249312338</v>
       </c>
       <c r="J14">
-        <v>1.041667927065723</v>
+        <v>1.004249554879692</v>
       </c>
       <c r="K14">
-        <v>1.041430040443885</v>
+        <v>1.01242925818048</v>
       </c>
       <c r="L14">
-        <v>1.037727522702259</v>
+        <v>0.9992695614961635</v>
       </c>
       <c r="M14">
-        <v>1.034784544514906</v>
+        <v>0.9537908741122478</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035236251565664</v>
+        <v>0.974604700513803</v>
       </c>
       <c r="D15">
-        <v>1.037975169438346</v>
+        <v>0.9981232102503617</v>
       </c>
       <c r="E15">
-        <v>1.034273180639171</v>
+        <v>0.9847693890205874</v>
       </c>
       <c r="F15">
-        <v>1.031406811537665</v>
+        <v>0.9388524678941775</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039425665771798</v>
+        <v>1.032998886848145</v>
       </c>
       <c r="J15">
-        <v>1.041773088320245</v>
+        <v>1.004915745407167</v>
       </c>
       <c r="K15">
-        <v>1.041519222274706</v>
+        <v>1.013008482098362</v>
       </c>
       <c r="L15">
-        <v>1.037830889134816</v>
+        <v>0.9999108027552378</v>
       </c>
       <c r="M15">
-        <v>1.034975167820905</v>
+        <v>0.9549486714021095</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03606812585903</v>
+        <v>0.9797655527604062</v>
       </c>
       <c r="D16">
-        <v>1.038609222748328</v>
+        <v>1.002025097559857</v>
       </c>
       <c r="E16">
-        <v>1.034990635862002</v>
+        <v>0.9890474220028368</v>
       </c>
       <c r="F16">
-        <v>1.03263408116009</v>
+        <v>0.9461878689336721</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039718639767267</v>
+        <v>1.03521846539673</v>
       </c>
       <c r="J16">
-        <v>1.042384312224515</v>
+        <v>1.00872619879734</v>
       </c>
       <c r="K16">
-        <v>1.042037461909385</v>
+        <v>1.016321313711528</v>
       </c>
       <c r="L16">
-        <v>1.038431749646674</v>
+        <v>1.003580016500455</v>
       </c>
       <c r="M16">
-        <v>1.03608363289873</v>
+        <v>0.9615620185692992</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036589318114723</v>
+        <v>0.9829295920105511</v>
       </c>
       <c r="D17">
-        <v>1.039006410655934</v>
+        <v>1.004419087909764</v>
       </c>
       <c r="E17">
-        <v>1.035440181838917</v>
+        <v>0.9916728670779907</v>
       </c>
       <c r="F17">
-        <v>1.033403121124179</v>
+        <v>0.9506734869555712</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039901662282845</v>
+        <v>1.036574909438465</v>
       </c>
       <c r="J17">
-        <v>1.042766964608901</v>
+        <v>1.011059943415946</v>
       </c>
       <c r="K17">
-        <v>1.04236180694764</v>
+        <v>1.018350075635473</v>
       </c>
       <c r="L17">
-        <v>1.038807974295169</v>
+        <v>1.005828493608376</v>
       </c>
       <c r="M17">
-        <v>1.036778036665954</v>
+        <v>0.965605436558757</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03689309978454</v>
+        <v>0.9847500318520871</v>
       </c>
       <c r="D18">
-        <v>1.039237891892187</v>
+        <v>1.005797075822847</v>
       </c>
       <c r="E18">
-        <v>1.035702218151954</v>
+        <v>0.9931843307136209</v>
       </c>
       <c r="F18">
-        <v>1.033851408800259</v>
+        <v>0.9532505247634588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040008146205442</v>
+        <v>1.037353765564711</v>
       </c>
       <c r="J18">
-        <v>1.042989890253042</v>
+        <v>1.01240180749145</v>
       </c>
       <c r="K18">
-        <v>1.042550729469562</v>
+        <v>1.01951648887014</v>
       </c>
       <c r="L18">
-        <v>1.039027176891571</v>
+        <v>1.007121757809715</v>
       </c>
       <c r="M18">
-        <v>1.037182748945907</v>
+        <v>0.9679281475822068</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036996644255386</v>
+        <v>0.9853666151342191</v>
       </c>
       <c r="D19">
-        <v>1.039316788653007</v>
+        <v>1.006263897433486</v>
       </c>
       <c r="E19">
-        <v>1.035791536059201</v>
+        <v>0.9936964130585414</v>
       </c>
       <c r="F19">
-        <v>1.03400421630555</v>
+        <v>0.9541227624551993</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040044408776438</v>
+        <v>1.037617295140006</v>
       </c>
       <c r="J19">
-        <v>1.043065856700581</v>
+        <v>1.012856150150028</v>
       </c>
       <c r="K19">
-        <v>1.042615102810815</v>
+        <v>1.019911408702784</v>
       </c>
       <c r="L19">
-        <v>1.039101878296381</v>
+        <v>1.007559716008568</v>
       </c>
       <c r="M19">
-        <v>1.037320691299052</v>
+        <v>0.9687142538307497</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036533422034409</v>
+        <v>0.9825927438192199</v>
       </c>
       <c r="D20">
-        <v>1.038963816027171</v>
+        <v>1.00416415693815</v>
       </c>
       <c r="E20">
-        <v>1.035391968087812</v>
+        <v>0.9913932632018779</v>
       </c>
       <c r="F20">
-        <v>1.033320639542132</v>
+        <v>0.9501963428113197</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039882053653762</v>
+        <v>1.036430664203049</v>
       </c>
       <c r="J20">
-        <v>1.042725937503237</v>
+        <v>1.010811579221848</v>
       </c>
       <c r="K20">
-        <v>1.042327034980832</v>
+        <v>1.018134177744204</v>
       </c>
       <c r="L20">
-        <v>1.038767634117387</v>
+        <v>1.005589159009737</v>
       </c>
       <c r="M20">
-        <v>1.036703567107399</v>
+        <v>0.9651753581692085</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035024826149078</v>
+        <v>0.9732705372312276</v>
       </c>
       <c r="D21">
-        <v>1.037814001781791</v>
+        <v>0.9971151231699102</v>
       </c>
       <c r="E21">
-        <v>1.034090848135659</v>
+        <v>0.9836643264179786</v>
       </c>
       <c r="F21">
-        <v>1.031094930221275</v>
+        <v>0.9369521274548965</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039351040082807</v>
+        <v>1.032423730771012</v>
       </c>
       <c r="J21">
-        <v>1.041617650954883</v>
+        <v>1.003929932345325</v>
       </c>
       <c r="K21">
-        <v>1.041387401968057</v>
+        <v>1.012151357324405</v>
       </c>
       <c r="L21">
-        <v>1.037678105885247</v>
+        <v>0.9989619360214778</v>
       </c>
       <c r="M21">
-        <v>1.034693419228413</v>
+        <v>0.9532352155633105</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034074264189099</v>
+        <v>0.967153870626297</v>
       </c>
       <c r="D22">
-        <v>1.037089302441054</v>
+        <v>0.9924967610914626</v>
       </c>
       <c r="E22">
-        <v>1.033271150675077</v>
+        <v>0.9786026657515875</v>
       </c>
       <c r="F22">
-        <v>1.029692889174025</v>
+        <v>0.92821715386154</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039014714278975</v>
+        <v>1.029780145340744</v>
       </c>
       <c r="J22">
-        <v>1.040918359145933</v>
+        <v>0.9994066084879207</v>
       </c>
       <c r="K22">
-        <v>1.040794216293977</v>
+        <v>1.008218338566891</v>
       </c>
       <c r="L22">
-        <v>1.036990846843737</v>
+        <v>0.9946102687687081</v>
       </c>
       <c r="M22">
-        <v>1.033426549442882</v>
+        <v>0.9453586477201963</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03457837197207</v>
+        <v>0.9704222043870047</v>
       </c>
       <c r="D23">
-        <v>1.037473648474434</v>
+        <v>0.9949638067648644</v>
       </c>
       <c r="E23">
-        <v>1.033705844613078</v>
+        <v>0.9813063205639346</v>
       </c>
       <c r="F23">
-        <v>1.03043639481504</v>
+        <v>0.9328892463160665</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039193240965555</v>
+        <v>1.031194037848003</v>
       </c>
       <c r="J23">
-        <v>1.041289303077601</v>
+        <v>1.001824312938745</v>
       </c>
       <c r="K23">
-        <v>1.041108904628359</v>
+        <v>1.010320554308037</v>
       </c>
       <c r="L23">
-        <v>1.037355389200486</v>
+        <v>0.9969357881588736</v>
       </c>
       <c r="M23">
-        <v>1.034098431858137</v>
+        <v>0.9495717083968808</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036558679749094</v>
+        <v>0.9827450282489937</v>
       </c>
       <c r="D24">
-        <v>1.038983063298488</v>
+        <v>1.004279405873799</v>
       </c>
       <c r="E24">
-        <v>1.035413754350674</v>
+        <v>0.991519665461327</v>
       </c>
       <c r="F24">
-        <v>1.033357910282995</v>
+        <v>0.9504120647541964</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039890914783201</v>
+        <v>1.036495880396928</v>
       </c>
       <c r="J24">
-        <v>1.042744476716957</v>
+        <v>1.010923863938766</v>
       </c>
       <c r="K24">
-        <v>1.042342747746373</v>
+        <v>1.018231784827981</v>
       </c>
       <c r="L24">
-        <v>1.038785862857247</v>
+        <v>1.00569736014817</v>
       </c>
       <c r="M24">
-        <v>1.036737217687711</v>
+        <v>0.9653698020574288</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038848077759144</v>
+        <v>0.9960706307067396</v>
       </c>
       <c r="D25">
-        <v>1.040727152142897</v>
+        <v>1.014375399232221</v>
       </c>
       <c r="E25">
-        <v>1.03738879653661</v>
+        <v>1.002598202107506</v>
       </c>
       <c r="F25">
-        <v>1.036737232004906</v>
+        <v>0.9692198808227162</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040689946237862</v>
+        <v>1.042168934604861</v>
       </c>
       <c r="J25">
-        <v>1.044422593942828</v>
+        <v>1.020730961295028</v>
       </c>
       <c r="K25">
-        <v>1.043764276874555</v>
+        <v>1.026754580298063</v>
       </c>
       <c r="L25">
-        <v>1.040436341041456</v>
+        <v>1.015156317787653</v>
       </c>
       <c r="M25">
-        <v>1.039786818744906</v>
+        <v>0.9823155824947924</v>
       </c>
     </row>
   </sheetData>
